--- a/TestData/Book1.xlsx
+++ b/TestData/Book1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AutoExercise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -63,13 +64,97 @@
   </si>
   <si>
     <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>VerifyHomePageLogo</t>
+  </si>
+  <si>
+    <t>Website for automation practice</t>
+  </si>
+  <si>
+    <t>New User Signup!</t>
+  </si>
+  <si>
+    <t>ValidateUserSignup</t>
+  </si>
+  <si>
+    <t>ActInfVisible</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ShriLadda123</t>
+  </si>
+  <si>
+    <t>ENTER ACCOUNT INFORMATION</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>mobno</t>
+  </si>
+  <si>
+    <t>Ladda</t>
+  </si>
+  <si>
+    <t>MyCompany</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Add1</t>
+  </si>
+  <si>
+    <t>Add2</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Sanagamner</t>
+  </si>
+  <si>
+    <t>https://www.automationexercise.com/account_created</t>
+  </si>
+  <si>
+    <t>ExpURL</t>
+  </si>
+  <si>
+    <t>ExpectedText</t>
+  </si>
+  <si>
+    <t>Logged in as Ladda</t>
+  </si>
+  <si>
+    <t>shrirang@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +173,32 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,13 +225,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,9 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -471,4 +584,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="50.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>422605</v>
+      </c>
+      <c r="O2">
+        <v>1234567890</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>